--- a/data/trans_dic/P32E$calle_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Provincia-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1046,7 +1046,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$calle_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Provincia-trans_dic.xlsx
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03550333206853135</v>
+        <v>0.03550333206853134</v>
       </c>
     </row>
     <row r="11">
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2041907992692823</v>
+        <v>0.2438164648279117</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.1846060139305617</v>
+        <v>0.1888532424429004</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>0.3613183516760383</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2760696884437308</v>
+        <v>0.2760696884437309</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.3436448891365554</v>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1723074612415251</v>
+        <v>0.1851974957525699</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2015438708301494</v>
+        <v>0.1864092954419273</v>
       </c>
     </row>
     <row r="21">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.575512826929893</v>
+        <v>0.5806369080904056</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6379006969327549</v>
+        <v>0.6605842461370021</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5210501280585116</v>
+        <v>0.5244585392155139</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.07902647836147415</v>
+        <v>0.07902647836147414</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2821820767042219</v>
+        <v>0.2821820767042218</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1418237991495227</v>
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02252941986027356</v>
+        <v>0.02368037149476716</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08021558612392138</v>
+        <v>0.07201112624891727</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.062194442871929</v>
+        <v>0.0528054024079764</v>
       </c>
     </row>
     <row r="24">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1972435260258487</v>
+        <v>0.2092799497503001</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6245287215020197</v>
+        <v>0.5768262464206552</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2774330586674529</v>
+        <v>0.2745792308054777</v>
       </c>
     </row>
     <row r="25">
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.3043868272823702</v>
+        <v>0.3043868272823701</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.1394219785223239</v>
+        <v>0.1394219785223238</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.2576742536024721</v>
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1632924256498261</v>
+        <v>0.1631860645340484</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03235903172106894</v>
+        <v>0.03161222226602945</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1460541758978628</v>
+        <v>0.1502059181604443</v>
       </c>
     </row>
     <row r="27">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.481679881394659</v>
+        <v>0.4656151647136064</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3703323385655082</v>
+        <v>0.3725941030388166</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3984069346149495</v>
+        <v>0.4040780171163707</v>
       </c>
     </row>
     <row r="28">
@@ -955,7 +955,7 @@
         <v>0.1744712219838913</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.1571953754919922</v>
+        <v>0.1571953754919921</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.1695575014106997</v>
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.116383155171635</v>
+        <v>0.1117042471662311</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.07625386904821474</v>
+        <v>0.07416928853873299</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1147421635213157</v>
+        <v>0.1141848791583843</v>
       </c>
     </row>
     <row r="30">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2585276312996014</v>
+        <v>0.2529928141080319</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2855919027166107</v>
+        <v>0.2768327104271247</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2323980087816395</v>
+        <v>0.2338994735943356</v>
       </c>
     </row>
     <row r="31">
@@ -1273,11 +1273,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3315</v>
+        <v>3958</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>3171</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="16">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4702</v>
+        <v>5054</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6938</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="27">
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15705</v>
+        <v>15844</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4553</v>
+        <v>4715</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17937</v>
+        <v>18054</v>
       </c>
     </row>
     <row r="28">
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>989</v>
+        <v>1040</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1576</v>
+        <v>1415</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3953</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="31">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>8662</v>
+        <v>9190</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12270</v>
+        <v>11333</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17634</v>
+        <v>17452</v>
       </c>
     </row>
     <row r="32">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>7636</v>
+        <v>7631</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>9528</v>
+        <v>9799</v>
       </c>
     </row>
     <row r="35">
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>22525</v>
+        <v>21774</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6841</v>
+        <v>6883</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>25990</v>
+        <v>26360</v>
       </c>
     </row>
     <row r="36">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>18794</v>
+        <v>18038</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>4894</v>
+        <v>4761</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>25894</v>
+        <v>25768</v>
       </c>
     </row>
     <row r="39">
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>41748</v>
+        <v>40854</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>18331</v>
+        <v>17769</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>52445</v>
+        <v>52784</v>
       </c>
     </row>
     <row r="40">
